--- a/双周计划/2018/哗啦啦实施部双周滚动计划（2018.05.21-05.25）-南京-翁晨.xlsx
+++ b/双周计划/2018/哗啦啦实施部双周滚动计划（2018.05.21-05.25）-南京-翁晨.xlsx
@@ -1240,6 +1240,196 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1274,196 +1464,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="78" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="90" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="4" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1902,52 +1902,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="96"/>
     </row>
     <row r="2" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="49" t="s">
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="102"/>
     </row>
     <row r="3" spans="2:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
     </row>
     <row r="4" spans="2:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
@@ -1956,15 +1956,15 @@
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1980,30 +1980,30 @@
         <v>1</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
       <c r="I5" s="32"/>
       <c r="J5" s="33"/>
       <c r="K5" s="34"/>
     </row>
     <row r="6" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="2:11" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
@@ -2015,10 +2015,10 @@
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
@@ -2039,10 +2039,10 @@
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="66"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2050,18 +2050,18 @@
       <c r="K8" s="35"/>
     </row>
     <row r="9" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="74"/>
     </row>
     <row r="10" spans="2:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
@@ -2073,10 +2073,10 @@
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
@@ -2094,18 +2094,18 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
     </row>
     <row r="12" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8">
@@ -2117,10 +2117,10 @@
       <c r="D12" s="9">
         <v>43241</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="70"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="10" t="s">
         <v>25</v>
       </c>
@@ -2250,18 +2250,18 @@
       <c r="K17" s="34"/>
     </row>
     <row r="18" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="8">
@@ -2269,8 +2269,8 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="38"/>
@@ -2278,18 +2278,18 @@
       <c r="K19" s="34"/>
     </row>
     <row r="20" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
     </row>
     <row r="21" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
@@ -2301,10 +2301,10 @@
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="56"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="5" t="s">
         <v>18</v>
       </c>
@@ -2382,18 +2382,18 @@
       <c r="K26" s="34"/>
     </row>
     <row r="27" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="64"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
     </row>
     <row r="28" spans="2:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="8">
@@ -2401,8 +2401,8 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="36"/>
@@ -2415,8 +2415,8 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="36"/>
@@ -2462,18 +2462,18 @@
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="2:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="74"/>
     </row>
     <row r="34" spans="2:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
@@ -2485,41 +2485,41 @@
       <c r="D34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="56" t="s">
+      <c r="E34" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="56"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="I34" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="56"/>
-      <c r="K34" s="79"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="75"/>
     </row>
     <row r="35" spans="2:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="80" t="s">
+      <c r="E35" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="81"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="83"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="67"/>
     </row>
     <row r="36" spans="2:11" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="85"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="16" t="s">
         <v>40</v>
       </c>
@@ -2529,21 +2529,21 @@
       <c r="F36" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="85" t="s">
+      <c r="G36" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85" t="s">
+      <c r="H36" s="69"/>
+      <c r="I36" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="J36" s="85"/>
-      <c r="K36" s="86"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="70"/>
     </row>
     <row r="37" spans="2:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="87" t="s">
+      <c r="B37" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="88"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="18">
         <v>10</v>
       </c>
@@ -2553,20 +2553,20 @@
       <c r="F37" s="18">
         <v>1</v>
       </c>
-      <c r="G37" s="100">
+      <c r="G37" s="45">
         <f>D38/(D37+F37)</f>
         <v>1</v>
       </c>
-      <c r="H37" s="100"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="101"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="47"/>
     </row>
     <row r="38" spans="2:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="88"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="18">
         <v>11</v>
       </c>
@@ -2576,53 +2576,53 @@
       <c r="F38" s="18">
         <v>0</v>
       </c>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="101"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="47"/>
     </row>
     <row r="39" spans="2:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="91"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="64"/>
     </row>
     <row r="40" spans="2:11" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="94"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="60"/>
     </row>
     <row r="41" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="94"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="60"/>
     </row>
     <row r="42" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
@@ -2634,10 +2634,10 @@
       <c r="D42" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="51"/>
       <c r="G42" s="5" t="s">
         <v>18</v>
       </c>
@@ -2655,18 +2655,18 @@
       </c>
     </row>
     <row r="43" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="97"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="56"/>
     </row>
     <row r="44" spans="2:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="8">
@@ -2678,10 +2678,10 @@
       <c r="D44" s="9">
         <v>43248</v>
       </c>
-      <c r="E44" s="102" t="s">
+      <c r="E44" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="77"/>
+      <c r="F44" s="49"/>
       <c r="G44" s="10" t="s">
         <v>25</v>
       </c>
@@ -2702,10 +2702,10 @@
       <c r="D45" s="9">
         <v>43249</v>
       </c>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="77"/>
+      <c r="F45" s="49"/>
       <c r="G45" s="10" t="s">
         <v>25</v>
       </c>
@@ -2726,10 +2726,10 @@
       <c r="D46" s="9">
         <v>43250</v>
       </c>
-      <c r="E46" s="102" t="s">
+      <c r="E46" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F46" s="77"/>
+      <c r="F46" s="49"/>
       <c r="G46" s="10" t="s">
         <v>25</v>
       </c>
@@ -2750,10 +2750,10 @@
       <c r="D47" s="9">
         <v>43248</v>
       </c>
-      <c r="E47" s="102" t="s">
+      <c r="E47" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F47" s="77"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="10" t="s">
         <v>25</v>
       </c>
@@ -2765,25 +2765,25 @@
       <c r="K47" s="34"/>
     </row>
     <row r="48" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="97"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="56"/>
     </row>
     <row r="49" spans="2:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="8"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="38"/>
@@ -2791,18 +2791,18 @@
       <c r="K49" s="34"/>
     </row>
     <row r="50" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-      <c r="I50" s="93"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="94"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="60"/>
     </row>
     <row r="51" spans="2:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="4" t="s">
@@ -2814,10 +2814,10 @@
       <c r="D51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="56"/>
+      <c r="F51" s="51"/>
       <c r="G51" s="5" t="s">
         <v>18</v>
       </c>
@@ -2838,8 +2838,8 @@
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="49"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="36"/>
@@ -2850,8 +2850,8 @@
       <c r="B53" s="8"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="77"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="36"/>
@@ -2862,8 +2862,8 @@
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="56"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="51"/>
       <c r="G54" s="10"/>
       <c r="H54" s="20"/>
       <c r="I54" s="36"/>
@@ -2874,8 +2874,8 @@
       <c r="B55" s="21"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
-      <c r="E55" s="98"/>
-      <c r="F55" s="98"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
       <c r="I55" s="41"/>
@@ -2903,12 +2903,12 @@
       <c r="G60" s="29"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F61" s="99"/>
-      <c r="G61" s="99"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.15">
       <c r="F63" s="30"/>
@@ -2928,6 +2928,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:K41"/>
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="G37:H38"/>
     <mergeCell ref="I37:K38"/>
@@ -2944,58 +2996,6 @@
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.33888888888888902" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
